--- a/java/WebMath TestProject.xlsx
+++ b/java/WebMath TestProject.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeetpandya/Desktop/TESTAPPS/EclipseWorkspace/WebMathProject/src/test/java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8D28E1-25EC-F249-A3CE-0B076E2609E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B17EB3D-33D2-D841-8E54-183575757A23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1000" windowWidth="27940" windowHeight="15720" xr2:uid="{BB5123FC-2F30-364C-87AC-FD610360A95E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" xr2:uid="{BB5123FC-2F30-364C-87AC-FD610360A95E}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="160">
   <si>
     <t>Test Scenarios</t>
   </si>
@@ -327,13 +327,273 @@
   </si>
   <si>
     <t>TC17</t>
+  </si>
+  <si>
+    <t>TS_04
+Math for Everyone Page</t>
+  </si>
+  <si>
+    <t>Tip Calculator Page</t>
+  </si>
+  <si>
+    <t>1.Open Math for Everyone Page
+2. Click on Figuring a Tip
+3. Check if Tip Calculator Page is displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tip Calculator page should be displayed</t>
+  </si>
+  <si>
+    <t>Tip Calculator page is displayed</t>
+  </si>
+  <si>
+    <t>1. Click on Figuring a Tip
+2. Enter tip percentage and total amount
+3. Click on Figure Tip
+4. Check if right answer is displayed</t>
+  </si>
+  <si>
+    <t>Tip = 10%
+Total bill = $100</t>
+  </si>
+  <si>
+    <t>Right answer showld be displayed</t>
+  </si>
+  <si>
+    <t>Right answer is displayed</t>
+  </si>
+  <si>
+    <t>Check Tip Calculator is working</t>
+  </si>
+  <si>
+    <t>TC18</t>
+  </si>
+  <si>
+    <t>TC19</t>
+  </si>
+  <si>
+    <t>TC20</t>
+  </si>
+  <si>
+    <t>TC21</t>
+  </si>
+  <si>
+    <t>Simple Interest Page</t>
+  </si>
+  <si>
+    <t>1.Open Math for Everyone Page
+2. Click on Figuring a Tip
+3. Check if Simple Interest Page is displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Simple Interest Page should be displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Simple Interest Page is displayed</t>
+  </si>
+  <si>
+    <t>Check Simple Interest is working</t>
+  </si>
+  <si>
+    <t>1. Click on Simple Interest
+2. Enter Principal Amount
+3. Enter Interest Rate
+4. Enter Time Period
+5.Check if right answer is displayed</t>
+  </si>
+  <si>
+    <t>Amount = $1000
+Rate = 10%
+Time = 10yrs</t>
+  </si>
+  <si>
+    <t>TS_05
+Quick Jump To Math Selection</t>
+  </si>
+  <si>
+    <t>TC22</t>
+  </si>
+  <si>
+    <t>Numbers Addition Page</t>
+  </si>
+  <si>
+    <t>1. Click on Quick Jump dropdown
+2. Select Numbers Addition option
+3. Check if Numbers Addition Page is Displayed</t>
+  </si>
+  <si>
+    <t>Numbers Addition Page should be displayed</t>
+  </si>
+  <si>
+    <t>Numbers Addition Page is displayed</t>
+  </si>
+  <si>
+    <t>Coins Counting Page</t>
+  </si>
+  <si>
+    <t>Conversion Area Page</t>
+  </si>
+  <si>
+    <t>Convert Temp Page</t>
+  </si>
+  <si>
+    <t>Numbers Multiply Page</t>
+  </si>
+  <si>
+    <t>1. Click on Quick Jump dropdown
+2. Select Coins Counting option
+3. Check if Coins Counting Page is Displayed</t>
+  </si>
+  <si>
+    <t>Coins Counting Page should be displayed</t>
+  </si>
+  <si>
+    <t>Coins Counting Page is displayed</t>
+  </si>
+  <si>
+    <t>1. Click on Quick Jump dropdown
+2. Select Conversion Area option
+3. Check if Conversion Area Page is Displayed</t>
+  </si>
+  <si>
+    <t>Conversion Area Page should be displayed</t>
+  </si>
+  <si>
+    <t>Conversion Area Page is displayed</t>
+  </si>
+  <si>
+    <t>1. Click on Quick Jump dropdown
+2. Select Convert Temp option
+3. Check if Convert Temp Page is Displayed</t>
+  </si>
+  <si>
+    <t>Convert Temp Page should be displayed</t>
+  </si>
+  <si>
+    <t>Convert Temp Page is displayed</t>
+  </si>
+  <si>
+    <t>Numbers Multiply Page is displayed</t>
+  </si>
+  <si>
+    <t>Numbers Multiply Page should be displayed</t>
+  </si>
+  <si>
+    <t>1. Click on Quick Jump dropdown
+2. Select Numbers Multiply option
+3. Check if Numbers Multiply Page is Displayed</t>
+  </si>
+  <si>
+    <t>TC23</t>
+  </si>
+  <si>
+    <t>TC24</t>
+  </si>
+  <si>
+    <t>TC25</t>
+  </si>
+  <si>
+    <t>TC26</t>
+  </si>
+  <si>
+    <t>TC27</t>
+  </si>
+  <si>
+    <t>TS_06
+Math Functions Working Validation</t>
+  </si>
+  <si>
+    <t>Check Numbers Addition is working</t>
+  </si>
+  <si>
+    <t>Check Coins Counting is working</t>
+  </si>
+  <si>
+    <t>Check Conversion Area is working</t>
+  </si>
+  <si>
+    <t>Check Convert Temp is working</t>
+  </si>
+  <si>
+    <t>Check Numbers Multiply is working</t>
+  </si>
+  <si>
+    <t>1. Open Numbers Addition page from dropdown
+2. Enter First Number
+3. Enter Second Number
+4. Click Add them buttom
+5.Check if right answer is displayed</t>
+  </si>
+  <si>
+    <t>First no = 10
+Second no = 20</t>
+  </si>
+  <si>
+    <t>1. Open Coins Counting page from dropdown
+2. Enter number of Quarters
+3. Enter number of Dimes
+4. Enter number of Nickels
+5. Enter number of Pennies
+6. Click on help me count
+7.Check if right answer is displayed</t>
+  </si>
+  <si>
+    <t>Quarters = 10
+Dimes = 10
+Nickels = 10
+Pennies = 10</t>
+  </si>
+  <si>
+    <t>1. Open Conversion Area Page from dropdown
+2. Enter Area value
+3. Select Sq.Foot
+4. Click Convert Button
+5. Check if right answer is displayed</t>
+  </si>
+  <si>
+    <t>Area = 1000 sq.ft</t>
+  </si>
+  <si>
+    <t>1. Open Convert Temp Page from dropdown
+2. Enter Temp value
+3. Select ℃
+4. Click Convert Button
+5. Check if right answer is displayed</t>
+  </si>
+  <si>
+    <t>Temp = 100℃</t>
+  </si>
+  <si>
+    <t>1. Open Numbers Multiply page from dropdown
+2. Enter First Number
+3. Enter Second Number
+4. Click Multiply them buttom
+5.Check if right answer is displayed</t>
+  </si>
+  <si>
+    <t>TC28</t>
+  </si>
+  <si>
+    <t>TC29</t>
+  </si>
+  <si>
+    <t>TC30</t>
+  </si>
+  <si>
+    <t>TC31</t>
+  </si>
+  <si>
+    <t>Fatal Error is Displayed</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -354,8 +614,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -374,6 +641,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6468"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -387,7 +660,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -410,12 +683,28 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF6468"/>
+      <color rgb="FFFF6578"/>
+      <color rgb="FFFF5363"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -724,11 +1013,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D37646-1D85-B447-9968-9C8DFE53EA14}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -736,9 +1025,9 @@
     <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.6640625" customWidth="1"/>
-    <col min="4" max="4" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="32.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="26.83203125" customWidth="1"/>
     <col min="7" max="7" width="24.6640625" customWidth="1"/>
     <col min="8" max="8" width="11.1640625" customWidth="1"/>
   </cols>
@@ -874,7 +1163,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>43</v>
       </c>
@@ -898,7 +1187,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="3" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>43</v>
       </c>
@@ -922,7 +1211,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="3" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>43</v>
       </c>
@@ -970,7 +1259,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="3" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>43</v>
       </c>
@@ -1099,7 +1388,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="3" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>88</v>
       </c>
@@ -1123,7 +1412,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="3" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>88</v>
       </c>
@@ -1201,35 +1490,395 @@
       <c r="D21" s="6"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="4"/>
+    <row r="22" spans="1:8" s="3" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="4"/>
+      <c r="F22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="3" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="3" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="3" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="1:8" s="2" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="2" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="2" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="2" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="2" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D32" s="6"/>
+    </row>
+    <row r="33" spans="1:8" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="2" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D38" s="6"/>
+    </row>
+    <row r="39" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D45" s="4"/>
+    </row>
+    <row r="46" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D47" s="4"/>
+    </row>
+    <row r="48" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D48" s="4"/>
+    </row>
+    <row r="49" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D49" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
